--- a/SectionB/Data_Driven/BuyBooks/SecB_buybook_data.xlsx
+++ b/SectionB/Data_Driven/BuyBooks/SecB_buybook_data.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E2" sqref="E2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
